--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Large Model equivalence 2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Large Model equivalence 2.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3483,12 +3483,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4315,12 +4315,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5153,12 +5153,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5229,12 +5229,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5495,12 +5495,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5533,12 +5533,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
